--- a/TEL Accomplishments.xlsx
+++ b/TEL Accomplishments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -237,6 +237,21 @@
   </si>
   <si>
     <t>JB Deep Dive: Site List</t>
+  </si>
+  <si>
+    <t>Bydureon Deep Dive</t>
+  </si>
+  <si>
+    <t>2015 Q2</t>
+  </si>
+  <si>
+    <t>Integral Data Health Check</t>
+  </si>
+  <si>
+    <t>Test new data source and see if we should integrate into our systems</t>
+  </si>
+  <si>
+    <t>Explored Order IDs</t>
   </si>
 </sst>
 </file>
@@ -726,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1005,6 +1020,9 @@
       <c r="C20" t="s">
         <v>27</v>
       </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -1017,95 +1035,98 @@
         <v>27</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -1113,32 +1134,29 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1149,35 +1167,35 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
       </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
       </c>
-      <c r="D35" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
@@ -1185,12 +1203,37 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>26</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>24</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>27</v>
       </c>
     </row>

--- a/TEL Accomplishments.xlsx
+++ b/TEL Accomplishments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -252,6 +252,60 @@
   </si>
   <si>
     <t>Explored Order IDs</t>
+  </si>
+  <si>
+    <t>Client Access Dashboard</t>
+  </si>
+  <si>
+    <t>BG / Experian / JB</t>
+  </si>
+  <si>
+    <t>Campaign Heat Map</t>
+  </si>
+  <si>
+    <t>Fraudulent Site Dashboard</t>
+  </si>
+  <si>
+    <t>Customer Journey Dashboard</t>
+  </si>
+  <si>
+    <t>Latency; created PTC SP</t>
+  </si>
+  <si>
+    <t>Audience Insights</t>
+  </si>
+  <si>
+    <t>Query for Prosp --&gt; RET</t>
+  </si>
+  <si>
+    <t>Deep Dives</t>
+  </si>
+  <si>
+    <t>OANDA, Intel, JB</t>
+  </si>
+  <si>
+    <t>UID Project</t>
+  </si>
+  <si>
+    <t>2015 Q3</t>
+  </si>
+  <si>
+    <t>Lookalike modelling, velocity targeting, intender model</t>
+  </si>
+  <si>
+    <t>JB Viewability Test Dashboard</t>
+  </si>
+  <si>
+    <t>JB Viewability Test</t>
+  </si>
+  <si>
+    <t>Calculated number of impressions required for statistical significance</t>
+  </si>
+  <si>
+    <t>JB Rebooking Analysis</t>
+  </si>
+  <si>
+    <t>Figure out how long we should exclude converters for</t>
   </si>
 </sst>
 </file>
@@ -741,11 +795,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1060,181 +1112,320 @@
         <v>74</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>2</v>
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
-        <v>13</v>
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>26</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B46" t="s">
         <v>24</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C46" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/TEL Accomplishments.xlsx
+++ b/TEL Accomplishments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -306,6 +306,48 @@
   </si>
   <si>
     <t>Figure out how long we should exclude converters for</t>
+  </si>
+  <si>
+    <t>Pan Am Margin Tool</t>
+  </si>
+  <si>
+    <t>Data pull for Chris D.'s eMarketer interview</t>
+  </si>
+  <si>
+    <t>Papa John's Custom Report</t>
+  </si>
+  <si>
+    <t>Creating KPI contribution formula</t>
+  </si>
+  <si>
+    <t>Working through Feld case study with Will</t>
+  </si>
+  <si>
+    <t>Spec'ing out custom naming requirements for the CMT with product</t>
+  </si>
+  <si>
+    <t>IHG Client Access Dashboard</t>
+  </si>
+  <si>
+    <t>Experian Client Access Dashboard</t>
+  </si>
+  <si>
+    <t>Ontario Tourism Case Study</t>
+  </si>
+  <si>
+    <t>Query to figure out how many users we prospect and then go on to retarget and lead to convert</t>
+  </si>
+  <si>
+    <t>FOREX insights for Questrade campaign</t>
+  </si>
+  <si>
+    <t>Customer Journey Dashboard (Latency, First to Last Touch, Frequency)</t>
+  </si>
+  <si>
+    <t>PPB Viewability Weekly Report</t>
+  </si>
+  <si>
+    <t>Query to see how many users who converted through RET were touched by prospecting</t>
   </si>
 </sst>
 </file>
@@ -409,9 +451,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -795,9 +838,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1190,243 +1235,326 @@
         <v>93</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>89</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B64" t="s">
         <v>11</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C64" t="s">
         <v>72</v>
       </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A24:D37">

--- a/TEL Accomplishments.xlsx
+++ b/TEL Accomplishments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -308,21 +308,12 @@
     <t>Figure out how long we should exclude converters for</t>
   </si>
   <si>
-    <t>Pan Am Margin Tool</t>
-  </si>
-  <si>
-    <t>Data pull for Chris D.'s eMarketer interview</t>
-  </si>
-  <si>
     <t>Papa John's Custom Report</t>
   </si>
   <si>
     <t>Creating KPI contribution formula</t>
   </si>
   <si>
-    <t>Working through Feld case study with Will</t>
-  </si>
-  <si>
     <t>Spec'ing out custom naming requirements for the CMT with product</t>
   </si>
   <si>
@@ -335,12 +326,6 @@
     <t>Ontario Tourism Case Study</t>
   </si>
   <si>
-    <t>Query to figure out how many users we prospect and then go on to retarget and lead to convert</t>
-  </si>
-  <si>
-    <t>FOREX insights for Questrade campaign</t>
-  </si>
-  <si>
     <t>Customer Journey Dashboard (Latency, First to Last Touch, Frequency)</t>
   </si>
   <si>
@@ -348,6 +333,30 @@
   </si>
   <si>
     <t>Query to see how many users who converted through RET were touched by prospecting</t>
+  </si>
+  <si>
+    <t>Insights on trading account campaigns and showing our experience</t>
+  </si>
+  <si>
+    <t>Questrade Proposal</t>
+  </si>
+  <si>
+    <t>Latency, frequency, first to last touch</t>
+  </si>
+  <si>
+    <t>Path to Conversion SP &amp; Dashboard</t>
+  </si>
+  <si>
+    <t>Prove multi-platform</t>
+  </si>
+  <si>
+    <t>JetBlue OrderID Analysis</t>
+  </si>
+  <si>
+    <t>Coordinated with vendors / traders / Ams; build lookalike modle</t>
+  </si>
+  <si>
+    <t>Product</t>
   </si>
 </sst>
 </file>
@@ -838,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B64" sqref="B62:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1237,170 +1246,265 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="2"/>
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="2"/>
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="2"/>
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="2"/>
+      <c r="A40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>2</v>
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -1408,153 +1512,130 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="D55" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="D58" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" t="s">
         <v>24</v>
       </c>
-      <c r="C59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="C61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" t="s">
         <v>24</v>
       </c>
-      <c r="C60" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" t="s">
-        <v>11</v>
-      </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>80</v>
+      <c r="A63" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
-      </c>
-      <c r="D63" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>89</v>
+      <c r="A64" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A24:D37">

--- a/TEL Accomplishments.xlsx
+++ b/TEL Accomplishments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="113">
   <si>
     <t>Date</t>
   </si>
@@ -257,9 +257,6 @@
     <t>Client Access Dashboard</t>
   </si>
   <si>
-    <t>BG / Experian / JB</t>
-  </si>
-  <si>
     <t>Campaign Heat Map</t>
   </si>
   <si>
@@ -357,6 +354,15 @@
   </si>
   <si>
     <t>Product</t>
+  </si>
+  <si>
+    <t>BG / Experian / JB / IHG</t>
+  </si>
+  <si>
+    <t>Spec'ing out Contract Module</t>
+  </si>
+  <si>
+    <t>Solution to margin tool</t>
   </si>
 </sst>
 </file>
@@ -847,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B64" sqref="B62:B64"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1168,7 +1174,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -1179,7 +1185,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
@@ -1190,7 +1196,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -1199,26 +1205,26 @@
         <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
         <v>47</v>
       </c>
       <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
         <v>87</v>
-      </c>
-      <c r="D27" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -1227,12 +1233,12 @@
         <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -1241,12 +1247,12 @@
         <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -1257,10 +1263,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
         <v>72</v>
@@ -1268,7 +1274,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
@@ -1279,7 +1285,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
         <v>47</v>
@@ -1290,196 +1296,174 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
         <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" t="s">
         <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -1487,7 +1471,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -1496,15 +1480,15 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -1512,46 +1496,46 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
@@ -1559,82 +1543,118 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
       </c>
       <c r="C59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B60" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B62" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B64" t="s">
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
